--- a/bazy_danych/lodowka.xlsx
+++ b/bazy_danych/lodowka.xlsx
@@ -8,25 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Nazwa</t>
   </si>
   <si>
-    <t>Jest</t>
-  </si>
-  <si>
     <t>Punkty</t>
   </si>
   <si>
@@ -91,12 +83,6 @@
   </si>
   <si>
     <t>"Ciecierzyca"</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>Sztuka</t>
@@ -442,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,451 +439,301 @@
     <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>1000</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>400</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>400</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>500</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>500</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>1000</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>400</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>350</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>350</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>400</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>400</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19">
-        <v>350</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20">
-        <v>350</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>400</v>
-      </c>
-      <c r="F21">
+      <c r="D21">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>